--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\163ku\IdeaProjects\RBAC_automation_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VComply\IdeaProjects\RBAC_automation_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA619A84-6A37-4946-B2C8-8FB8E2811492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1890" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BASE SETUP" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminCreateRC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,106 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Data 1</t>
-  </si>
-  <si>
-    <t>Data 2</t>
-  </si>
-  <si>
-    <t>Data 3</t>
-  </si>
-  <si>
-    <t>Data 4</t>
-  </si>
-  <si>
-    <t>Data 5</t>
-  </si>
-  <si>
-    <t>Data 6</t>
-  </si>
-  <si>
-    <t>Data 7</t>
-  </si>
-  <si>
-    <t>Data 8</t>
-  </si>
-  <si>
-    <t>Data 9</t>
-  </si>
-  <si>
-    <t>Result 1</t>
-  </si>
-  <si>
-    <t>Result 2</t>
-  </si>
-  <si>
-    <t>Result 3</t>
-  </si>
-  <si>
-    <t>Result 4</t>
-  </si>
-  <si>
-    <t>Result 5</t>
-  </si>
-  <si>
-    <t>Result 6</t>
-  </si>
-  <si>
-    <t>Result 7</t>
-  </si>
-  <si>
-    <t>Result 8</t>
-  </si>
-  <si>
-    <t>Result 9</t>
-  </si>
-  <si>
-    <t>Result 10</t>
-  </si>
-  <si>
-    <t>Data 10</t>
-  </si>
-  <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Name 4</t>
-  </si>
-  <si>
-    <t>Name 5</t>
-  </si>
-  <si>
-    <t>Name 6</t>
-  </si>
-  <si>
-    <t>Name 7</t>
-  </si>
-  <si>
-    <t>Name 8</t>
-  </si>
-  <si>
-    <t>Name 9</t>
-  </si>
-  <si>
-    <t>Name 10</t>
-  </si>
-  <si>
-    <t>Name 11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>Base Setup</t>
+  </si>
+  <si>
+    <t>Server you want to run on 
+(DEV,TEST, BETA, APP)</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Value passes</t>
+  </si>
+  <si>
+    <t>Admin Email Address</t>
+  </si>
+  <si>
+    <t>Key Admin Email Address</t>
+  </si>
+  <si>
+    <t>Key Admin Password</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Executive Email Address</t>
+  </si>
+  <si>
+    <t>Executive Password</t>
+  </si>
+  <si>
+    <t>Responsibility center name</t>
+  </si>
+  <si>
+    <t>Admin created responsibility center</t>
+  </si>
+  <si>
+    <t>Location of Responsibility Center Field</t>
+  </si>
+  <si>
+    <t>This Responsibility center is located in Kolkata</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>jamescop@knolpower.nl</t>
+  </si>
+  <si>
+    <t>Vcomply@1234</t>
+  </si>
+  <si>
+    <t>charles@knol-power.nl</t>
+  </si>
+  <si>
+    <t>minicooper1@knol-power.nl</t>
+  </si>
+  <si>
+    <t>seknhn1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +106,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,13 +152,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,116 +446,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>